--- a/Settings/Install.xlsx
+++ b/Settings/Install.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markus/Projects/wiki/Settings/Chocolatey/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markus/Projects/wiki/Settings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4506EEE7-D878-A842-BEAA-7A65850848E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087B3557-891E-6D4B-9461-89C0FD4BED95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29860" yWindow="500" windowWidth="34140" windowHeight="26500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="433">
   <si>
     <t>adblockpluschrome</t>
   </si>
@@ -1399,6 +1399,12 @@
   </si>
   <si>
     <t>Winget</t>
+  </si>
+  <si>
+    <t>speedtest</t>
+  </si>
+  <si>
+    <t>Speedtest by Ookla</t>
   </si>
 </sst>
 </file>
@@ -4663,11 +4669,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F93F60-305A-704A-9194-4387AC0BEE7B}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="135" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5342,16 +5348,30 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
+      <c r="A51" t="s">
+        <v>431</v>
+      </c>
+      <c r="B51" t="s">
+        <v>289</v>
+      </c>
+      <c r="C51" t="s">
+        <v>289</v>
+      </c>
+      <c r="D51" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="18"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="18" t="s">
         <v>383</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A52" r:id="rId1" xr:uid="{65CB6B51-C990-C94E-8E20-9886EFDBDD52}"/>
+    <hyperlink ref="A53" r:id="rId1" xr:uid="{65CB6B51-C990-C94E-8E20-9886EFDBDD52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Settings/Install.xlsx
+++ b/Settings/Install.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markus/Projects/wiki/Settings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087B3557-891E-6D4B-9461-89C0FD4BED95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE8111D-12F3-F548-8C0E-4D126752D1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29860" yWindow="500" windowWidth="34140" windowHeight="26500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="439">
   <si>
     <t>adblockpluschrome</t>
   </si>
@@ -1405,6 +1405,24 @@
   </si>
   <si>
     <t>Speedtest by Ookla</t>
+  </si>
+  <si>
+    <t>ncdu</t>
+  </si>
+  <si>
+    <t>Disk Usage</t>
+  </si>
+  <si>
+    <t>baobab</t>
+  </si>
+  <si>
+    <t>Disk Usage (Start via CLI)</t>
+  </si>
+  <si>
+    <t>hiddenbar</t>
+  </si>
+  <si>
+    <t>Menüleiste aufräumen</t>
   </si>
 </sst>
 </file>
@@ -4669,11 +4687,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F93F60-305A-704A-9194-4387AC0BEE7B}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="135" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5246,7 +5264,7 @@
         <v>408</v>
       </c>
       <c r="B43" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C43" t="s">
         <v>289</v>
@@ -5362,16 +5380,58 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="18"/>
+      <c r="A52" t="s">
+        <v>433</v>
+      </c>
+      <c r="B52" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D52" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="18" t="s">
+      <c r="A53" t="s">
+        <v>435</v>
+      </c>
+      <c r="B53" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" t="s">
+        <v>289</v>
+      </c>
+      <c r="D53" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>437</v>
+      </c>
+      <c r="B54" t="s">
+        <v>289</v>
+      </c>
+      <c r="C54" t="s">
+        <v>289</v>
+      </c>
+      <c r="D54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="18"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="18" t="s">
         <v>383</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A53" r:id="rId1" xr:uid="{65CB6B51-C990-C94E-8E20-9886EFDBDD52}"/>
+    <hyperlink ref="A56" r:id="rId1" xr:uid="{65CB6B51-C990-C94E-8E20-9886EFDBDD52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Settings/Install.xlsx
+++ b/Settings/Install.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markus/Projects/wiki/Settings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE8111D-12F3-F548-8C0E-4D126752D1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805B09FD-3608-6A4C-BFE3-CE4D1098F5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="441">
   <si>
     <t>adblockpluschrome</t>
   </si>
@@ -1423,6 +1423,12 @@
   </si>
   <si>
     <t>Menüleiste aufräumen</t>
+  </si>
+  <si>
+    <t>Ubuntu VM: https://canonical.com/multipass/install</t>
+  </si>
+  <si>
+    <t>multipass</t>
   </si>
 </sst>
 </file>
@@ -4687,11 +4693,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F93F60-305A-704A-9194-4387AC0BEE7B}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="135" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5422,16 +5428,30 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
+      <c r="A55" t="s">
+        <v>440</v>
+      </c>
+      <c r="B55" t="s">
+        <v>289</v>
+      </c>
+      <c r="C55" t="s">
+        <v>289</v>
+      </c>
+      <c r="D55" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="18"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="18" t="s">
         <v>383</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A56" r:id="rId1" xr:uid="{65CB6B51-C990-C94E-8E20-9886EFDBDD52}"/>
+    <hyperlink ref="A57" r:id="rId1" xr:uid="{65CB6B51-C990-C94E-8E20-9886EFDBDD52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Settings/Install.xlsx
+++ b/Settings/Install.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markus/Projects/wiki/Settings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805B09FD-3608-6A4C-BFE3-CE4D1098F5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DEF0C7-71A9-E14E-9343-3136FA0FFD43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44800" yWindow="620" windowWidth="22400" windowHeight="27740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Windows" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="448">
   <si>
     <t>adblockpluschrome</t>
   </si>
@@ -1429,6 +1429,27 @@
   </si>
   <si>
     <t>multipass</t>
+  </si>
+  <si>
+    <t>Separate Download; free since 11/2025</t>
+  </si>
+  <si>
+    <t>Canva</t>
+  </si>
+  <si>
+    <t>Visual Suite; Firma hat Affinity gekauft</t>
+  </si>
+  <si>
+    <t>Parcel</t>
+  </si>
+  <si>
+    <t>Meta Paket Tracker</t>
+  </si>
+  <si>
+    <t>Davinice Resolve</t>
+  </si>
+  <si>
+    <t>Video Editor</t>
   </si>
 </sst>
 </file>
@@ -4693,11 +4714,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F93F60-305A-704A-9194-4387AC0BEE7B}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="135" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5262,7 +5283,7 @@
         <v>297</v>
       </c>
       <c r="D42" t="s">
-        <v>370</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -5442,16 +5463,58 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
+      <c r="A56" t="s">
+        <v>442</v>
+      </c>
+      <c r="B56" t="s">
+        <v>297</v>
+      </c>
+      <c r="C56" t="s">
+        <v>297</v>
+      </c>
+      <c r="D56" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="18" t="s">
+      <c r="A57" t="s">
+        <v>444</v>
+      </c>
+      <c r="B57" t="s">
+        <v>297</v>
+      </c>
+      <c r="C57" t="s">
+        <v>297</v>
+      </c>
+      <c r="D57" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>446</v>
+      </c>
+      <c r="B58" t="s">
+        <v>297</v>
+      </c>
+      <c r="C58" t="s">
+        <v>297</v>
+      </c>
+      <c r="D58" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="18"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="18" t="s">
         <v>383</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A57" r:id="rId1" xr:uid="{65CB6B51-C990-C94E-8E20-9886EFDBDD52}"/>
+    <hyperlink ref="A60" r:id="rId1" xr:uid="{65CB6B51-C990-C94E-8E20-9886EFDBDD52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
